--- a/TempLate/Creditors.xlsx
+++ b/TempLate/Creditors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -49,7 +49,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -92,13 +92,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
@@ -111,17 +104,6 @@
       <color indexed="56"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
@@ -129,6 +111,29 @@
       <i/>
       <sz val="10"/>
       <color indexed="56"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
@@ -333,23 +338,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,14 +377,20 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,20 +776,20 @@
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -793,65 +800,65 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="e">
+      <c r="B3" s="13" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="e">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="24" t="e">
+      <c r="C7" s="23" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="13" t="e">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -874,8 +881,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>